--- a/ig/ch-rad-order/ValueSet-ch-rad-order-caveat-condition.xlsx
+++ b/ig/ch-rad-order/ValueSet-ch-rad-order-caveat-condition.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from SNOMED CT 2" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from SNOWMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from SNOWMED CT 2" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T11:41:58+01:00</t>
+    <t>2024-05-17T11:27:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -70,7 +70,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Juerg P. Bleuer (https://www.hl7.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -91,7 +91,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>CC-BY-SA-4.0</t>
+    <t>CC0-1.0</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -303,10 +303,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ig/ch-rad-order/ValueSet-ch-rad-order-caveat-condition.xlsx
+++ b/ig/ch-rad-order/ValueSet-ch-rad-order-caveat-condition.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOWMED CT" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from SNOWMED CT 2" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T11:27:24+00:00</t>
+    <t>2024-12-18T10:05:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-rad-order/ValueSet-ch-rad-order-caveat-condition.xlsx
+++ b/ig/ch-rad-order/ValueSet-ch-rad-order-caveat-condition.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -55,10 +55,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T10:05:02+00:00</t>
+    <t>2025-12-17T07:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -377,68 +380,70 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -460,106 +465,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -592,29 +597,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
